--- a/data/trans_dic/P15D$consultar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,59</t>
+          <t>0,0; 38,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 28,36</t>
+          <t>2,65; 30,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 36,95</t>
+          <t>4,3; 38,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,09</t>
+          <t>0,0; 21,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,29</t>
+          <t>0,0; 57,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,79</t>
+          <t>0,0; 34,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,44</t>
+          <t>0,0; 32,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,54; 34,08</t>
+          <t>8,53; 33,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,93</t>
+          <t>0,0; 30,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 23,64</t>
+          <t>3,66; 23,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 28,27</t>
+          <t>4,66; 29,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 21,44</t>
+          <t>4,57; 20,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,64</t>
+          <t>0,0; 38,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 31,59</t>
+          <t>5,61; 33,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 45,06</t>
+          <t>5,43; 40,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 20,39</t>
+          <t>0,7; 18,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,67</t>
+          <t>0,0; 75,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,39</t>
+          <t>0,0; 32,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,81</t>
+          <t>0,0; 19,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 45,23</t>
+          <t>13,81; 43,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 35,45</t>
+          <t>4,42; 37,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 26,11</t>
+          <t>5,53; 24,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 22,58</t>
+          <t>2,5; 22,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 28,56</t>
+          <t>9,36; 27,67</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 35,13</t>
+          <t>6,46; 33,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,28</t>
+          <t>1,58; 14,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 33,72</t>
+          <t>5,92; 33,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 28,16</t>
+          <t>4,55; 26,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 51,24</t>
+          <t>6,3; 49,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,13</t>
+          <t>0,0; 62,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 54,88</t>
+          <t>12,54; 53,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 28,11</t>
+          <t>5,47; 29,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 18,65</t>
+          <t>3,09; 17,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 34,22</t>
+          <t>8,02; 33,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 29,13</t>
+          <t>8,92; 27,72</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1145,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 24,03</t>
+          <t>2,7; 24,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,54</t>
+          <t>1,03; 9,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 24,4</t>
+          <t>7,32; 25,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 20,89</t>
+          <t>3,28; 18,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 42,8</t>
+          <t>8,63; 42,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 23,24</t>
+          <t>4,27; 23,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1180,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 30,82</t>
+          <t>8,76; 30,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 25,05</t>
+          <t>6,97; 25,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 12,09</t>
+          <t>3,48; 12,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,58</t>
+          <t>3,96; 15,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 19,69</t>
+          <t>6,85; 20,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,57</t>
+          <t>0,0; 62,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 22,3</t>
+          <t>2,62; 23,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 25,1</t>
+          <t>5,62; 25,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 30,62</t>
+          <t>2,17; 32,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,55</t>
+          <t>0,0; 42,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 18,91</t>
+          <t>3,3; 17,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,82; 38,71</t>
+          <t>11,54; 36,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,81; 30,55</t>
+          <t>12,83; 30,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 30,91</t>
+          <t>3,22; 33,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 17,54</t>
+          <t>4,26; 17,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 27,19</t>
+          <t>10,13; 26,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 26,27</t>
+          <t>10,77; 25,43</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,01</t>
+          <t>0,0; 35,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,48; 31,33</t>
+          <t>3,47; 30,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 26,82</t>
+          <t>3,69; 29,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,02</t>
+          <t>1,06; 9,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 19,01</t>
+          <t>3,15; 18,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,45; 20,63</t>
+          <t>6,43; 21,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 23,65</t>
+          <t>4,43; 25,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,41</t>
+          <t>2,45; 11,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 13,76</t>
+          <t>2,12; 13,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 16,76</t>
+          <t>4,47; 17,94</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 21,29</t>
+          <t>7,56; 20,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,58</t>
+          <t>5,43; 11,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,67</t>
+          <t>8,44; 18,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 13,93</t>
+          <t>5,25; 14,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 21,37</t>
+          <t>6,93; 22,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,51</t>
+          <t>5,48; 12,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,42</t>
+          <t>6,21; 15,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,89; 24,05</t>
+          <t>14,95; 24,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,85; 18,45</t>
+          <t>8,85; 18,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,2</t>
+          <t>6,28; 11,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 15,22</t>
+          <t>8,54; 15,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 17,34</t>
+          <t>11,1; 17,58</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, consultar con un profesional sanitario (fuera de un hospital)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3693</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3734</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5650</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4864</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>899; 10382</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>925; 8212</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5055</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4461</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5981</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6453</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1981; 7733</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6167</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1878; 12242</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1940; 12082</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2151; 9509</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1871</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2864</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6263</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2773</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7791</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7789</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5122</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1819; 10987</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>915; 6787</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>168; 4573</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4242</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8753</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4383</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3198; 9964</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>834; 7092</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3281; 14739</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>972; 8938</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4426; 13091</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3074</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3599</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6244</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7974</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1828; 9611</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>897; 8345</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1838; 10410</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1515; 8887</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1516</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>881; 6975</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5520</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1505; 6386</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1818; 9778</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2183; 12338</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3198; 13523</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4042; 12569</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3986</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8339</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5421</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8647</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9631</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10015</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8339</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14540</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1052; 9602</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>988; 9124</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4316; 14801</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2182; 12483</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2158; 10613</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2078; 11652</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4335; 14927</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4462; 16066</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5026; 18462</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3856; 14937</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7944; 23826</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2730</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3686</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5447</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4313</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5014</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9150</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11132</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8700</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14597</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15445</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7877</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1002; 9101</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2338; 10559</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>833; 12614</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9477</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1922; 10190</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4664; 14688</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6817; 16093</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1131; 11592</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4111; 16809</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8305; 21999</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9844; 23256</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3736</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3186</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2961</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5274</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5865</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5051</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6697</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5274</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5865</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5678</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>930; 8297</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2014</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3098</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1035; 8341</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>947; 8507</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1904; 10967</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2999; 10173</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1959; 11152</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2841; 13337</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1907; 11736</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2610; 10469</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23180</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>25475</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>17157</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12156</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>21840</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>19475</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>39751</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>28526</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>44950</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>56908</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9225; 25358</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15411; 33541</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16848; 36178</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10387; 27843</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6496; 21166</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13931; 32991</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11817; 28885</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31040; 49947</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19109; 40199</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>33805; 61371</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>33298; 59107</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>44994; 71286</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P15D$consultar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
